--- a/Firmware/vx.x/EEPROM - Layout.xlsx
+++ b/Firmware/vx.x/EEPROM - Layout.xlsx
@@ -19,7 +19,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="P2" authorId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -29,11 +29,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>X_Touch_0</t>
+          <t>X-0</t>
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,11 +43,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Y_Touch_0</t>
+          <t>X-480</t>
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,11 +57,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>X_Touch_480</t>
+          <t>Y-0</t>
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,11 +71,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Y_Touch_320 </t>
+          <t>Y-320</t>
         </r>
       </text>
     </comment>
-    <comment ref="A6" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,11 +85,11 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>X_Pitch</t>
+          <t>X Pitch</t>
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="F4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,16 +99,12 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Y_Pitch</t>
+          <t>Y Pitch</t>
         </r>
       </text>
     </comment>
   </commentList>
 </comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -181,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -241,11 +237,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,6 +311,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -591,7 +630,7 @@
   <dimension ref="A1:EE34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,14 +640,14 @@
   <sheetData>
     <row r="1" spans="1:135" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
+      <c r="A2" s="15">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="16">
         <f t="shared" ref="B2:B33" si="0">A2+1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f t="shared" ref="C2:P19" si="1">B2+1</f>
         <v>2</v>
       </c>
@@ -1114,23 +1153,23 @@
       </c>
     </row>
     <row r="3" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
+      <c r="A3" s="15">
         <f t="shared" ref="A3:A33" si="16">P2+1</f>
         <v>16</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="15">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="16">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
@@ -1640,55 +1679,55 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="14">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="14">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="14">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="14">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="14">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="14">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="14">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="14">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="14">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="P4" s="12">
+      <c r="P4" s="14">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
@@ -2141,68 +2180,68 @@
         <v>3631</v>
       </c>
     </row>
-    <row r="5" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <f t="shared" si="16"/>
         <v>48</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="14">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="14">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="14">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="14">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="14">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="14">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="14">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="14">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="14">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="14">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="14">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="14">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="14">
         <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="14">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
@@ -2655,68 +2694,68 @@
         <v>3647</v>
       </c>
     </row>
-    <row r="6" spans="1:135" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+    <row r="6" spans="1:135" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <f t="shared" si="16"/>
         <v>64</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="14">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="14">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="14">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="14">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="14">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="14">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="14">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="14">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="14">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="14">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="14">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="14">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="O6" s="1">
+      <c r="O6" s="14">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="14">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
@@ -3170,67 +3209,67 @@
       </c>
     </row>
     <row r="7" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="A7" s="14">
         <f t="shared" si="16"/>
         <v>80</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="14">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="14">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="14">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="14">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="14">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="14">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="14">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="14">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="14">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7" s="14">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="14">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="14">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="14">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
@@ -3684,67 +3723,67 @@
       </c>
     </row>
     <row r="8" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="A8" s="14">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="14">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="14">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="14">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="14">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="14">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="14">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="14">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="14">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8" s="14">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="14">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="14">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="14">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
@@ -4198,67 +4237,67 @@
       </c>
     </row>
     <row r="9" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="14">
         <f t="shared" si="16"/>
         <v>112</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="14">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="14">
         <f t="shared" si="1"/>
         <v>114</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="14">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="14">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>117</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="14">
         <f t="shared" si="1"/>
         <v>119</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="14">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="14">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="14">
         <f t="shared" si="1"/>
         <v>122</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="14">
         <f t="shared" si="1"/>
         <v>123</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9" s="14">
         <f t="shared" si="1"/>
         <v>124</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="14">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="14">
         <f t="shared" si="1"/>
         <v>126</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="14">
         <f t="shared" si="1"/>
         <v>127</v>
       </c>
@@ -4712,67 +4751,67 @@
       </c>
     </row>
     <row r="10" spans="1:135" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="14">
         <f t="shared" si="16"/>
         <v>128</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="14">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="14">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="14">
         <f t="shared" si="1"/>
         <v>131</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="14">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="14">
         <f t="shared" si="1"/>
         <v>133</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="14">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="14">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="14">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="14">
         <f t="shared" si="1"/>
         <v>138</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="14">
         <f t="shared" si="1"/>
         <v>139</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10" s="14">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="14">
         <f t="shared" si="1"/>
         <v>141</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="14">
         <f t="shared" si="1"/>
         <v>142</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="14">
         <f t="shared" si="1"/>
         <v>143</v>
       </c>
